--- a/test_data/导入招商银行对账单.xlsx
+++ b/test_data/导入招商银行对账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="3月份" sheetId="10" r:id="rId9"/>
     <sheet name="4月份" sheetId="11" r:id="rId10"/>
     <sheet name="5月份" sheetId="12" r:id="rId11"/>
+    <sheet name="6月份" sheetId="13" r:id="rId12"/>
+    <sheet name="7月份" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323">
   <si>
     <t>交易日</t>
   </si>
@@ -122,7 +124,7 @@
     <t>内部编号</t>
   </si>
   <si>
-    <t>20170901</t>
+    <t>20170501</t>
   </si>
   <si>
     <t>154128</t>
@@ -188,7 +190,7 @@
     <t>NPGATR</t>
   </si>
   <si>
-    <t>20170904</t>
+    <t>20170504</t>
   </si>
   <si>
     <t>052314</t>
@@ -224,7 +226,7 @@
     <t>G6360400210488C</t>
   </si>
   <si>
-    <t>20170910</t>
+    <t>20170510</t>
   </si>
   <si>
     <t>165438</t>
@@ -275,7 +277,7 @@
     <t>17R2002008968</t>
   </si>
   <si>
-    <t>20170911</t>
+    <t>20170511</t>
   </si>
   <si>
     <t>091442</t>
@@ -305,7 +307,7 @@
     <t>17R7002085194</t>
   </si>
   <si>
-    <t>20170912</t>
+    <t>20170512</t>
   </si>
   <si>
     <t>110008</t>
@@ -371,7 +373,7 @@
     <t>00126504177</t>
   </si>
   <si>
-    <t>20170914</t>
+    <t>20170514</t>
   </si>
   <si>
     <t>102528</t>
@@ -398,7 +400,7 @@
     <t>17R9002171746</t>
   </si>
   <si>
-    <t>20170915</t>
+    <t>20170515</t>
   </si>
   <si>
     <t>090324</t>
@@ -428,7 +430,7 @@
     <t>17R3002133900</t>
   </si>
   <si>
-    <t>20170917</t>
+    <t>20170517</t>
   </si>
   <si>
     <t>102948</t>
@@ -635,7 +637,7 @@
     <t>GATR</t>
   </si>
   <si>
-    <t>20170918</t>
+    <t>20170518</t>
   </si>
   <si>
     <t>164653</t>
@@ -650,7 +652,7 @@
     <t>01465600039595C</t>
   </si>
   <si>
-    <t>20170920</t>
+    <t>20170520</t>
   </si>
   <si>
     <t>001458</t>
@@ -723,6 +725,36 @@
   </si>
   <si>
     <t>20170820</t>
+  </si>
+  <si>
+    <t>20170901</t>
+  </si>
+  <si>
+    <t>20170904</t>
+  </si>
+  <si>
+    <t>20170910</t>
+  </si>
+  <si>
+    <t>20170911</t>
+  </si>
+  <si>
+    <t>20170912</t>
+  </si>
+  <si>
+    <t>20170914</t>
+  </si>
+  <si>
+    <t>20170915</t>
+  </si>
+  <si>
+    <t>20170917</t>
+  </si>
+  <si>
+    <t>20170918</t>
+  </si>
+  <si>
+    <t>20170920</t>
   </si>
   <si>
     <t>20171001</t>
@@ -905,34 +937,64 @@
     <t>20170320</t>
   </si>
   <si>
-    <t>20170501</t>
+    <t>20170601</t>
   </si>
   <si>
-    <t>20170504</t>
+    <t>20170604</t>
   </si>
   <si>
-    <t>20170510</t>
+    <t>20170610</t>
   </si>
   <si>
-    <t>20170511</t>
+    <t>20170611</t>
   </si>
   <si>
-    <t>20170512</t>
+    <t>20170612</t>
   </si>
   <si>
-    <t>20170514</t>
+    <t>20170614</t>
   </si>
   <si>
-    <t>20170515</t>
+    <t>20170615</t>
   </si>
   <si>
-    <t>20170517</t>
+    <t>20170617</t>
   </si>
   <si>
-    <t>20170518</t>
+    <t>20170618</t>
   </si>
   <si>
-    <t>20170520</t>
+    <t>20170620</t>
+  </si>
+  <si>
+    <t>20170701</t>
+  </si>
+  <si>
+    <t>20170704</t>
+  </si>
+  <si>
+    <t>20170710</t>
+  </si>
+  <si>
+    <t>20170711</t>
+  </si>
+  <si>
+    <t>20170712</t>
+  </si>
+  <si>
+    <t>20170714</t>
+  </si>
+  <si>
+    <t>20170715</t>
+  </si>
+  <si>
+    <t>20170717</t>
+  </si>
+  <si>
+    <t>20170718</t>
+  </si>
+  <si>
+    <t>20170720</t>
   </si>
 </sst>
 </file>
@@ -940,9 +1002,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -961,8 +1023,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -977,8 +1074,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,10 +1098,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1016,49 +1123,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1067,15 +1131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,7 +1145,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1097,9 +1159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,7 +1176,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,13 +1212,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,157 +1350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,39 +1367,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1352,17 +1381,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,6 +1409,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1405,6 +1449,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1413,10 +1475,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,133 +1487,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1893,14 +1955,10 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="A1:AF26"/>
+      <selection activeCell="K35" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:32">
       <c r="A1" t="s">
@@ -4412,7 +4470,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="L39" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6927,7 +6985,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="K34" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7032,7 +7090,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -7128,7 +7186,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -7224,7 +7282,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -7320,7 +7378,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -7416,7 +7474,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -7512,7 +7570,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -7608,7 +7666,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -7704,7 +7762,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -7800,7 +7858,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -7896,7 +7954,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -7992,7 +8050,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -8088,7 +8146,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -8184,7 +8242,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -8280,7 +8338,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -8376,7 +8434,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -8472,7 +8530,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -8568,7 +8626,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -8664,7 +8722,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -8760,7 +8818,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -8856,7 +8914,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -8952,7 +9010,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -9048,7 +9106,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -9144,7 +9202,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -9240,7 +9298,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -9336,7 +9394,5037 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>302</v>
+        <v>208</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>2115</v>
+      </c>
+      <c r="G26" s="2">
+        <v>53099.7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AF26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:32">
+      <c r="A2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1120</v>
+      </c>
+      <c r="G2" s="2">
+        <v>116134.57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:32">
+      <c r="A3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>136134.57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:32">
+      <c r="A4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2">
+        <v>65.41</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>136069.16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:32">
+      <c r="A5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>136019.16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:32">
+      <c r="A6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>11890</v>
+      </c>
+      <c r="G6" s="2">
+        <v>147909.16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:32">
+      <c r="A7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>1480</v>
+      </c>
+      <c r="G7" s="2">
+        <v>149389.16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:32">
+      <c r="A8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>2330</v>
+      </c>
+      <c r="G8" s="2">
+        <v>151719.16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:32">
+      <c r="A9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>158719.16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:32">
+      <c r="A10" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4">
+        <v>14000</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>144719.16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:32">
+      <c r="A11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>23145</v>
+      </c>
+      <c r="G11" s="2">
+        <v>167864.16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:32">
+      <c r="A12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>1782</v>
+      </c>
+      <c r="G12" s="2">
+        <v>169646.16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:32">
+      <c r="A13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>920</v>
+      </c>
+      <c r="G13" s="2">
+        <v>170566.16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:32">
+      <c r="A14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>387</v>
+      </c>
+      <c r="G14" s="2">
+        <v>170953.16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:32">
+      <c r="A15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>4250</v>
+      </c>
+      <c r="G15" s="2">
+        <v>175203.16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:32">
+      <c r="A16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="2">
+        <v>89692.34</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>85510.82</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:32">
+      <c r="A17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2">
+        <v>438</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>85072.82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:32">
+      <c r="A18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2">
+        <v>23500</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>61572.82</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:32">
+      <c r="A19" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2">
+        <v>500</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>61072.82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:32">
+      <c r="A20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>40706.07</v>
+      </c>
+      <c r="G20" s="2">
+        <v>101778.89</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:32">
+      <c r="A21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>199</v>
+      </c>
+      <c r="G21" s="2">
+        <v>101977.89</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:32">
+      <c r="A22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40706.07</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>61271.82</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:32">
+      <c r="A23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6795.55</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>54476.27</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:32">
+      <c r="A24" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8491.57</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>45984.7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:32">
+      <c r="A25" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50984.7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:32">
+      <c r="A26" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>2115</v>
+      </c>
+      <c r="G26" s="2">
+        <v>53099.7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AF26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K41" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:32">
+      <c r="A2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1120</v>
+      </c>
+      <c r="G2" s="2">
+        <v>116134.57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:32">
+      <c r="A3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>136134.57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:32">
+      <c r="A4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2">
+        <v>65.41</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>136069.16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:32">
+      <c r="A5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>136019.16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:32">
+      <c r="A6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>11890</v>
+      </c>
+      <c r="G6" s="2">
+        <v>147909.16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:32">
+      <c r="A7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>1480</v>
+      </c>
+      <c r="G7" s="2">
+        <v>149389.16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:32">
+      <c r="A8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>2330</v>
+      </c>
+      <c r="G8" s="2">
+        <v>151719.16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:32">
+      <c r="A9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>158719.16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:32">
+      <c r="A10" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4">
+        <v>14000</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>144719.16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:32">
+      <c r="A11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>23145</v>
+      </c>
+      <c r="G11" s="2">
+        <v>167864.16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:32">
+      <c r="A12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>1782</v>
+      </c>
+      <c r="G12" s="2">
+        <v>169646.16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:32">
+      <c r="A13" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>920</v>
+      </c>
+      <c r="G13" s="2">
+        <v>170566.16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:32">
+      <c r="A14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>387</v>
+      </c>
+      <c r="G14" s="2">
+        <v>170953.16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:32">
+      <c r="A15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>4250</v>
+      </c>
+      <c r="G15" s="2">
+        <v>175203.16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:32">
+      <c r="A16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="2">
+        <v>89692.34</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>85510.82</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:32">
+      <c r="A17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2">
+        <v>438</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>85072.82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:32">
+      <c r="A18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2">
+        <v>23500</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>61572.82</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:32">
+      <c r="A19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2">
+        <v>500</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>61072.82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:32">
+      <c r="A20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>40706.07</v>
+      </c>
+      <c r="G20" s="2">
+        <v>101778.89</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:32">
+      <c r="A21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>199</v>
+      </c>
+      <c r="G21" s="2">
+        <v>101977.89</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:32">
+      <c r="A22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40706.07</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>61271.82</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:32">
+      <c r="A23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6795.55</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>54476.27</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:32">
+      <c r="A24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8491.57</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>45984.7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:32">
+      <c r="A25" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50984.7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:32">
+      <c r="A26" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -9442,15 +14530,16 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:AF26"/>
+      <selection activeCell="D33" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" customFormat="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9548,7 +14637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" customFormat="1" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -9644,7 +14733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" customFormat="1" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -9740,7 +14829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" customFormat="1" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>224</v>
       </c>
@@ -9836,7 +14925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" customFormat="1" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>224</v>
       </c>
@@ -9932,7 +15021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" customFormat="1" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -10028,7 +15117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" customFormat="1" spans="1:32">
       <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
@@ -10124,7 +15213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" customFormat="1" spans="1:32">
       <c r="A8" s="1" t="s">
         <v>226</v>
       </c>
@@ -10220,7 +15309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" customFormat="1" spans="1:32">
       <c r="A9" s="1" t="s">
         <v>226</v>
       </c>
@@ -10316,7 +15405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" customFormat="1" spans="1:32">
       <c r="A10" s="3" t="s">
         <v>227</v>
       </c>
@@ -10412,7 +15501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" customFormat="1" spans="1:32">
       <c r="A11" s="1" t="s">
         <v>227</v>
       </c>
@@ -10508,7 +15597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" customFormat="1" spans="1:32">
       <c r="A12" s="1" t="s">
         <v>228</v>
       </c>
@@ -10604,7 +15693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" customFormat="1" spans="1:32">
       <c r="A13" s="1" t="s">
         <v>229</v>
       </c>
@@ -10700,7 +15789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" customFormat="1" spans="1:32">
       <c r="A14" s="1" t="s">
         <v>229</v>
       </c>
@@ -10796,7 +15885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" customFormat="1" spans="1:32">
       <c r="A15" s="1" t="s">
         <v>230</v>
       </c>
@@ -10892,7 +15981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" customFormat="1" spans="1:32">
       <c r="A16" s="1" t="s">
         <v>230</v>
       </c>
@@ -10988,7 +16077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" customFormat="1" spans="1:32">
       <c r="A17" s="1" t="s">
         <v>230</v>
       </c>
@@ -11084,7 +16173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" customFormat="1" spans="1:32">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
@@ -11180,7 +16269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" customFormat="1" spans="1:32">
       <c r="A19" s="1" t="s">
         <v>230</v>
       </c>
@@ -11276,7 +16365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" customFormat="1" spans="1:32">
       <c r="A20" s="1" t="s">
         <v>230</v>
       </c>
@@ -11372,7 +16461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" customFormat="1" spans="1:32">
       <c r="A21" s="1" t="s">
         <v>230</v>
       </c>
@@ -11468,7 +16557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" customFormat="1" spans="1:32">
       <c r="A22" s="1" t="s">
         <v>230</v>
       </c>
@@ -11564,7 +16653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" customFormat="1" spans="1:32">
       <c r="A23" s="1" t="s">
         <v>230</v>
       </c>
@@ -11660,7 +16749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" customFormat="1" spans="1:32">
       <c r="A24" s="1" t="s">
         <v>231</v>
       </c>
@@ -11756,7 +16845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" customFormat="1" spans="1:32">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -11852,7 +16941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" customFormat="1" spans="1:32">
       <c r="A26" s="1" t="s">
         <v>232</v>
       </c>
@@ -11960,7 +17049,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="A1:AF26"/>
+      <selection activeCell="I32" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12065,7 +17154,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -12161,7 +17250,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -12257,7 +17346,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -12353,7 +17442,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -12449,7 +17538,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -12545,7 +17634,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -12641,7 +17730,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -12737,7 +17826,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -12833,7 +17922,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -12929,7 +18018,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -13025,7 +18114,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -13121,7 +18210,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -13217,7 +18306,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -13313,7 +18402,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -13409,7 +18498,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -13505,7 +18594,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -13601,7 +18690,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -13697,7 +18786,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -13793,7 +18882,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -13889,7 +18978,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -13985,7 +19074,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -14081,7 +19170,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -14177,7 +19266,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -14273,7 +19362,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -14369,7 +19458,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -14475,7 +19564,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="N40" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14580,7 +19669,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -14676,7 +19765,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -14772,7 +19861,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -14868,7 +19957,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -14964,7 +20053,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -15060,7 +20149,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -15156,7 +20245,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -15252,7 +20341,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -15348,7 +20437,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -15444,7 +20533,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -15540,7 +20629,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -15636,7 +20725,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -15732,7 +20821,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -15828,7 +20917,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -15924,7 +21013,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -16020,7 +21109,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -16116,7 +21205,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -16212,7 +21301,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -16308,7 +21397,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -16404,7 +21493,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -16500,7 +21589,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -16596,7 +21685,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -16692,7 +21781,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -16788,7 +21877,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -16884,7 +21973,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -16990,7 +22079,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="N37" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17095,7 +22184,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -17191,7 +22280,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -17287,7 +22376,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -17383,7 +22472,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -17479,7 +22568,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -17575,7 +22664,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -17671,7 +22760,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -17767,7 +22856,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -17863,7 +22952,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -17959,7 +23048,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -18055,7 +23144,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -18151,7 +23240,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -18247,7 +23336,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -18343,7 +23432,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -18439,7 +23528,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -18535,7 +23624,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -18631,7 +23720,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -18727,7 +23816,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -18823,7 +23912,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -18919,7 +24008,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -19015,7 +24104,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -19111,7 +24200,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -19207,7 +24296,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -19303,7 +24392,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -19399,7 +24488,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -19610,7 +24699,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -19706,7 +24795,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -19802,7 +24891,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -19898,7 +24987,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -19994,7 +25083,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -20090,7 +25179,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -20186,7 +25275,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -20282,7 +25371,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -20378,7 +25467,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -20474,7 +25563,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -20570,7 +25659,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -20666,7 +25755,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -20762,7 +25851,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -20858,7 +25947,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -20954,7 +26043,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -21050,7 +26139,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -21146,7 +26235,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -21242,7 +26331,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -21338,7 +26427,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -21434,7 +26523,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -21530,7 +26619,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -21626,7 +26715,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -21722,7 +26811,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -21818,7 +26907,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -21914,7 +27003,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -22019,8 +27108,8 @@
   <sheetPr/>
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N31" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22129,7 +27218,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -22225,7 +27314,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -22321,7 +27410,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -22417,7 +27506,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -22513,7 +27602,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -22609,7 +27698,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -22705,7 +27794,7 @@
     </row>
     <row r="8" customFormat="1" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -22801,7 +27890,7 @@
     </row>
     <row r="9" customFormat="1" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -22897,7 +27986,7 @@
     </row>
     <row r="10" customFormat="1" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -22993,7 +28082,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -23089,7 +28178,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -23185,7 +28274,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -23281,7 +28370,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -23377,7 +28466,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -23473,7 +28562,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -23569,7 +28658,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -23665,7 +28754,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -23761,7 +28850,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -23857,7 +28946,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -23953,7 +29042,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -24049,7 +29138,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -24145,7 +29234,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -24241,7 +29330,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -24337,7 +29426,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -24433,7 +29522,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -24539,7 +29628,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O37" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G27" sqref="A1:AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24648,7 +29737,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -24744,7 +29833,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -24840,7 +29929,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -24936,7 +30025,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -25032,7 +30121,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -25128,7 +30217,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -25224,7 +30313,7 @@
     </row>
     <row r="8" customFormat="1" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -25320,7 +30409,7 @@
     </row>
     <row r="9" customFormat="1" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -25416,7 +30505,7 @@
     </row>
     <row r="10" customFormat="1" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -25512,7 +30601,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -25608,7 +30697,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -25704,7 +30793,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -25800,7 +30889,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -25896,7 +30985,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -25992,7 +31081,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -26088,7 +31177,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -26184,7 +31273,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -26280,7 +31369,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -26376,7 +31465,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -26472,7 +31561,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -26568,7 +31657,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -26664,7 +31753,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -26760,7 +31849,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -26856,7 +31945,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -26952,7 +32041,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -27058,7 +32147,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="A1:AF26"/>
+      <selection activeCell="I37" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27167,7 +32256,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -27263,7 +32352,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -27359,7 +32448,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -27455,7 +32544,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -27551,7 +32640,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -27647,7 +32736,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -27743,7 +32832,7 @@
     </row>
     <row r="8" customFormat="1" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -27839,7 +32928,7 @@
     </row>
     <row r="9" customFormat="1" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -27935,7 +33024,7 @@
     </row>
     <row r="10" customFormat="1" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -28031,7 +33120,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -28127,7 +33216,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -28223,7 +33312,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -28319,7 +33408,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -28415,7 +33504,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -28511,7 +33600,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -28607,7 +33696,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -28703,7 +33792,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -28799,7 +33888,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -28895,7 +33984,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -28991,7 +34080,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -29087,7 +34176,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -29183,7 +34272,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -29279,7 +34368,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -29375,7 +34464,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -29471,7 +34560,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>

--- a/test_data/导入招商银行对账单.xlsx
+++ b/test_data/导入招商银行对账单.xlsx
@@ -21,7 +21,7 @@
     <sheet name="6月份" sheetId="13" r:id="rId12"/>
     <sheet name="7月份" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -124,7 +124,7 @@
     <t>内部编号</t>
   </si>
   <si>
-    <t>20170501</t>
+    <t>20171001</t>
   </si>
   <si>
     <t>154128</t>
@@ -190,7 +190,7 @@
     <t>NPGATR</t>
   </si>
   <si>
-    <t>20170504</t>
+    <t>20171004</t>
   </si>
   <si>
     <t>052314</t>
@@ -226,7 +226,7 @@
     <t>G6360400210488C</t>
   </si>
   <si>
-    <t>20170510</t>
+    <t>20171010</t>
   </si>
   <si>
     <t>165438</t>
@@ -277,7 +277,7 @@
     <t>17R2002008968</t>
   </si>
   <si>
-    <t>20170511</t>
+    <t>20171011</t>
   </si>
   <si>
     <t>091442</t>
@@ -307,7 +307,7 @@
     <t>17R7002085194</t>
   </si>
   <si>
-    <t>20170512</t>
+    <t>20171012</t>
   </si>
   <si>
     <t>110008</t>
@@ -373,7 +373,7 @@
     <t>00126504177</t>
   </si>
   <si>
-    <t>20170514</t>
+    <t>20171014</t>
   </si>
   <si>
     <t>102528</t>
@@ -400,7 +400,7 @@
     <t>17R9002171746</t>
   </si>
   <si>
-    <t>20170515</t>
+    <t>20171015</t>
   </si>
   <si>
     <t>090324</t>
@@ -430,7 +430,7 @@
     <t>17R3002133900</t>
   </si>
   <si>
-    <t>20170517</t>
+    <t>20171017</t>
   </si>
   <si>
     <t>102948</t>
@@ -637,7 +637,7 @@
     <t>GATR</t>
   </si>
   <si>
-    <t>20170518</t>
+    <t>20171018</t>
   </si>
   <si>
     <t>164653</t>
@@ -652,7 +652,7 @@
     <t>01465600039595C</t>
   </si>
   <si>
-    <t>20170520</t>
+    <t>20171020</t>
   </si>
   <si>
     <t>001458</t>
@@ -755,36 +755,6 @@
   </si>
   <si>
     <t>20170920</t>
-  </si>
-  <si>
-    <t>20171001</t>
-  </si>
-  <si>
-    <t>20171004</t>
-  </si>
-  <si>
-    <t>20171010</t>
-  </si>
-  <si>
-    <t>20171011</t>
-  </si>
-  <si>
-    <t>20171012</t>
-  </si>
-  <si>
-    <t>20171014</t>
-  </si>
-  <si>
-    <t>20171015</t>
-  </si>
-  <si>
-    <t>20171017</t>
-  </si>
-  <si>
-    <t>20171018</t>
-  </si>
-  <si>
-    <t>20171020</t>
   </si>
   <si>
     <t>20171101</t>
@@ -937,6 +907,36 @@
     <t>20170320</t>
   </si>
   <si>
+    <t>20170501</t>
+  </si>
+  <si>
+    <t>20170504</t>
+  </si>
+  <si>
+    <t>20170510</t>
+  </si>
+  <si>
+    <t>20170511</t>
+  </si>
+  <si>
+    <t>20170512</t>
+  </si>
+  <si>
+    <t>20170514</t>
+  </si>
+  <si>
+    <t>20170515</t>
+  </si>
+  <si>
+    <t>20170517</t>
+  </si>
+  <si>
+    <t>20170518</t>
+  </si>
+  <si>
+    <t>20170520</t>
+  </si>
+  <si>
     <t>20170601</t>
   </si>
   <si>
@@ -1002,10 +1002,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1023,52 +1023,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,9 +1047,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,9 +1077,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,29 +1153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1153,15 +1161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,7 +1176,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,55 +1338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,115 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,6 +1367,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1388,23 +1403,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,6 +1420,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,24 +1467,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1475,10 +1475,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1487,133 +1487,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H41" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6985,7 +6985,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="J36" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -8434,7 +8434,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -8626,7 +8626,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -9106,7 +9106,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -12015,7 +12015,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="M41" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14530,7 +14530,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="K40" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17049,7 +17049,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="M37" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19564,7 +19564,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19669,7 +19669,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -19765,7 +19765,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -19861,7 +19861,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -19957,7 +19957,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -20053,7 +20053,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -20149,7 +20149,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -20245,7 +20245,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -20341,7 +20341,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -20533,7 +20533,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -20629,7 +20629,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -20725,7 +20725,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -20821,7 +20821,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -20917,7 +20917,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -21013,7 +21013,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -21109,7 +21109,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -21205,7 +21205,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -21301,7 +21301,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -21397,7 +21397,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -21493,7 +21493,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -21685,7 +21685,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -21781,7 +21781,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -21877,7 +21877,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -21973,7 +21973,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -22184,7 +22184,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -22280,7 +22280,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -22376,7 +22376,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -22472,7 +22472,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -22568,7 +22568,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -22664,7 +22664,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -22760,7 +22760,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -22856,7 +22856,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -22952,7 +22952,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -23048,7 +23048,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -23144,7 +23144,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -23240,7 +23240,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -23336,7 +23336,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -23432,7 +23432,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -23528,7 +23528,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -23624,7 +23624,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -23720,7 +23720,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -23816,7 +23816,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -23912,7 +23912,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -24008,7 +24008,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -24104,7 +24104,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -24200,7 +24200,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -24296,7 +24296,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -24392,7 +24392,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -24488,7 +24488,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -24699,7 +24699,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -24795,7 +24795,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -24891,7 +24891,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -24987,7 +24987,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -25083,7 +25083,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -25179,7 +25179,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -25275,7 +25275,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -25371,7 +25371,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -25467,7 +25467,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -25563,7 +25563,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -25659,7 +25659,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -25755,7 +25755,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -25851,7 +25851,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -25947,7 +25947,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -26043,7 +26043,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -26139,7 +26139,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -26235,7 +26235,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -26331,7 +26331,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -26427,7 +26427,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -26523,7 +26523,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -26619,7 +26619,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -26715,7 +26715,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -26811,7 +26811,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -26907,7 +26907,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -27003,7 +27003,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -27109,7 +27109,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I38" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27218,7 +27218,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -27314,7 +27314,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -27410,7 +27410,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -27506,7 +27506,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -27602,7 +27602,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -27698,7 +27698,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -27794,7 +27794,7 @@
     </row>
     <row r="8" customFormat="1" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="9" customFormat="1" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -27986,7 +27986,7 @@
     </row>
     <row r="10" customFormat="1" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -28082,7 +28082,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -28178,7 +28178,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -28274,7 +28274,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -28370,7 +28370,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -28466,7 +28466,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -28562,7 +28562,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -28658,7 +28658,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -28754,7 +28754,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -28850,7 +28850,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -28946,7 +28946,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -29042,7 +29042,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -29138,7 +29138,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -29234,7 +29234,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -29330,7 +29330,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -29522,7 +29522,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -29628,7 +29628,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="A1:AF27"/>
+      <selection activeCell="K35" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -29737,7 +29737,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -29833,7 +29833,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -29929,7 +29929,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -30025,7 +30025,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -30121,7 +30121,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -30217,7 +30217,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -30313,7 +30313,7 @@
     </row>
     <row r="8" customFormat="1" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -30409,7 +30409,7 @@
     </row>
     <row r="9" customFormat="1" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -30505,7 +30505,7 @@
     </row>
     <row r="10" customFormat="1" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -30601,7 +30601,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -30697,7 +30697,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -30793,7 +30793,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -30889,7 +30889,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -30985,7 +30985,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -31081,7 +31081,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -31177,7 +31177,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -31273,7 +31273,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -31369,7 +31369,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -31465,7 +31465,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -31561,7 +31561,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -31657,7 +31657,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -31753,7 +31753,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -31849,7 +31849,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -31945,7 +31945,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -32041,7 +32041,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
@@ -32147,7 +32147,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G38" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32256,7 +32256,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -32352,7 +32352,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -32448,7 +32448,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -32544,7 +32544,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -32640,7 +32640,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -32736,7 +32736,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -32832,7 +32832,7 @@
     </row>
     <row r="8" customFormat="1" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
@@ -32928,7 +32928,7 @@
     </row>
     <row r="9" customFormat="1" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
@@ -33024,7 +33024,7 @@
     </row>
     <row r="10" customFormat="1" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -33120,7 +33120,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>108</v>
@@ -33216,7 +33216,7 @@
     </row>
     <row r="12" customFormat="1" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>116</v>
@@ -33312,7 +33312,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
@@ -33408,7 +33408,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -33504,7 +33504,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:32">
       <c r="A15" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -33600,7 +33600,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>143</v>
@@ -33696,7 +33696,7 @@
     </row>
     <row r="17" customFormat="1" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -33792,7 +33792,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -33888,7 +33888,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>161</v>
@@ -33984,7 +33984,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>177</v>
@@ -34080,7 +34080,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:32">
       <c r="A21" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -34176,7 +34176,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:32">
       <c r="A22" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>188</v>
@@ -34272,7 +34272,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:32">
       <c r="A23" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>198</v>
@@ -34368,7 +34368,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:32">
       <c r="A24" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>204</v>
@@ -34464,7 +34464,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>209</v>
@@ -34560,7 +34560,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:32">
       <c r="A26" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>217</v>
